--- a/cellBackground/out/background.xlsx
+++ b/cellBackground/out/background.xlsx
@@ -45,12 +45,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="14"/>
+        <bgColor indexed="14"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <bgColor indexed="14"/>
       </patternFill>
     </fill>
   </fills>
